--- a/SchoolManagement.xlsx
+++ b/SchoolManagement.xlsx
@@ -3,20 +3,70 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E9C0CD-FDFA-45A6-A9EC-57661019C8C1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56BE307-099F-4239-A29C-F04B0B45975E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateSubject" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
+  <si>
+    <t>SubjectName</t>
+  </si>
+  <si>
+    <t>V_Eng</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>V_Bio</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>V_Che</t>
+  </si>
+  <si>
+    <t>V_Phy</t>
+  </si>
+  <si>
+    <t>V_Math</t>
+  </si>
+  <si>
+    <t>V_Hindi</t>
+  </si>
+  <si>
+    <t>V_Sans</t>
+  </si>
+  <si>
+    <t>V-His</t>
+  </si>
+  <si>
+    <t>V_Geo</t>
+  </si>
+  <si>
+    <t>V_Civics</t>
+  </si>
+  <si>
+    <t>PracticalPaper</t>
+  </si>
+  <si>
+    <t>CoScholastic</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -332,14 +382,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>